--- a/target/massaDeDados/procuraProduto.XLSX
+++ b/target/massaDeDados/procuraProduto.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java-codigo\Selenium_Automacao\ProjectTreinamentoHub_TDD\target\massaDeDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D956C2-5885-430C-87F0-62FCBEA2C37A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC07321A-7A0C-4374-9249-C27C8422C7AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>BOSE SOUNDLINK AROUND-EAR WIRELESS HEADPHONES II</t>
   </si>
@@ -66,22 +66,22 @@
     <t xml:space="preserve">Produtos Inexistente </t>
   </si>
   <si>
-    <t>Ipad</t>
-  </si>
-  <si>
-    <t>Xiaomi</t>
-  </si>
-  <si>
     <t>Guitarra</t>
   </si>
   <si>
-    <t>No results for "Ipad"</t>
-  </si>
-  <si>
-    <t>No results for "Xiaomi"</t>
-  </si>
-  <si>
     <t>No results for "Guitarra"</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>No results for "Celular"</t>
+  </si>
+  <si>
+    <t>Video game</t>
+  </si>
+  <si>
+    <t>No results for "Video game"</t>
   </si>
 </sst>
 </file>
@@ -145,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -168,23 +168,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,52 +552,59 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="B10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="7"/>
+      <c r="C12" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
